--- a/data/trans_media/Q33-Estudios-trans_media.xlsx
+++ b/data/trans_media/Q33-Estudios-trans_media.xlsx
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,4; 7,55</t>
+          <t>7,39; 7,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,36; 7,58</t>
+          <t>7,37; 7,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,12 +739,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,99; 7,19</t>
+          <t>6,99; 7,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,08; 7,22</t>
+          <t>7,08; 7,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,0; 7,18</t>
+          <t>7,01; 7,19</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,85; 7,0</t>
+          <t>6,84; 6,99</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,24; 7,35</t>
+          <t>7,25; 7,35</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,92; 7,05</t>
+          <t>6,93; 7,05</t>
         </is>
       </c>
     </row>
@@ -869,37 +869,37 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,34; 7,46</t>
+          <t>7,35; 7,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,44; 7,55</t>
+          <t>7,43; 7,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,19; 7,42</t>
+          <t>7,2; 7,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,51; 7,61</t>
+          <t>7,51; 7,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,2; 7,32</t>
+          <t>7,19; 7,32</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,27; 7,37</t>
+          <t>7,27; 7,38</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,83; 7,11</t>
+          <t>6,84; 7,11</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -909,17 +909,17 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,29; 7,38</t>
+          <t>7,29; 7,37</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,37; 7,45</t>
+          <t>7,37; 7,44</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,06; 7,22</t>
+          <t>7,05; 7,22</t>
         </is>
       </c>
     </row>
@@ -1004,37 +1004,37 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,35; 7,52</t>
+          <t>7,35; 7,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,1; 7,33</t>
+          <t>7,1; 7,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,21; 7,41</t>
+          <t>7,21; 7,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,98; 7,15</t>
+          <t>6,98; 7,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,4; 7,57</t>
+          <t>7,41; 7,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,25; 7,45</t>
+          <t>7,24; 7,45</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,18; 7,37</t>
+          <t>7,17; 7,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1054,12 +1054,12 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,22; 7,36</t>
+          <t>7,23; 7,36</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,01; 7,12</t>
+          <t>7,0; 7,12</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,35; 7,45</t>
+          <t>7,35; 7,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,17 +1159,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,15; 7,3</t>
+          <t>7,14; 7,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,35; 7,43</t>
+          <t>7,36; 7,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,14; 7,23</t>
+          <t>7,13; 7,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,12 +1179,12 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,9; 7,06</t>
+          <t>6,89; 7,07</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,43; 7,49</t>
+          <t>7,44; 7,5</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,33; 7,39</t>
+          <t>7,32; 7,39</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">

--- a/data/trans_media/Q33-Estudios-trans_media.xlsx
+++ b/data/trans_media/Q33-Estudios-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,39; 7,54</t>
+          <t>7,39; 7,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,37; 7,58</t>
+          <t>7,37; 7,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,44; 7,63</t>
+          <t>7,43; 7,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,08; 7,24</t>
+          <t>7,09; 7,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,01; 7,19</t>
+          <t>6,98; 7,18</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,25; 7,35</t>
+          <t>7,24; 7,35</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>7,21; 7,35</t>
+          <t>7,22; 7,35</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -874,7 +874,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,43; 7,54</t>
+          <t>7,44; 7,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,12 +884,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,51; 7,62</t>
+          <t>7,5; 7,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,19; 7,32</t>
+          <t>7,19; 7,31</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -909,7 +909,7 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,29; 7,37</t>
+          <t>7,29; 7,38</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,35; 7,51</t>
+          <t>7,34; 7,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,1; 7,32</t>
+          <t>7,12; 7,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,21; 7,4</t>
+          <t>7,22; 7,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,41; 7,57</t>
+          <t>7,39; 7,58</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1034,7 +1034,7 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,17; 7,37</t>
+          <t>7,19; 7,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,39; 7,52</t>
+          <t>7,4; 7,51</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,2; 7,36</t>
+          <t>7,21; 7,36</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,23; 7,36</t>
+          <t>7,22; 7,36</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1154,7 +1154,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,43; 7,51</t>
+          <t>7,42; 7,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,12 +1164,12 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,36; 7,44</t>
+          <t>7,35; 7,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,13; 7,23</t>
+          <t>7,14; 7,22</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,44; 7,5</t>
+          <t>7,44; 7,49</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,32; 7,39</t>
+          <t>7,33; 7,39</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
